--- a/EngineTesting/Win32/StaticDebugWindows/Resource/InputCSVTesting/Input2.xlsx
+++ b/EngineTesting/Win32/StaticDebugWindows/Resource/InputCSVTesting/Input2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12390" windowHeight="4995"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>@default</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>id</t>
   </si>
   <si>
     <t>测试0</t>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>test0</t>
@@ -236,10 +233,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -247,6 +244,105 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,45 +354,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,53 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -364,35 +384,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -403,13 +400,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,169 +514,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,17 +605,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +680,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,10 +1208,10 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="9" width="9" style="3"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -1270,25 +1267,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1296,19 +1293,19 @@
         <v>10001</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="3">
         <v>0.1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>6</v>
@@ -1319,19 +1316,19 @@
         <v>10002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="3">
         <v>1.1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>7</v>
@@ -1342,22 +1339,22 @@
         <v>10003</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="3">
         <v>2.1</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1365,22 +1362,22 @@
         <v>10004</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="3">
         <v>3.1</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1388,22 +1385,22 @@
         <v>10005</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="3">
         <v>4.1</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1411,22 +1408,22 @@
         <v>10006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1445,147 +1442,147 @@
       <selection activeCell="D1" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1604,37 +1601,37 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
